--- a/Remediation.xlsx
+++ b/Remediation.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
